--- a/Data/Transitions/19371952Translation.xlsx
+++ b/Data/Transitions/19371952Translation.xlsx
@@ -79,7 +79,7 @@
     <t>{32.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.6015689512799339}</t>
+    <t>{679.0: 0.4935636856368564}</t>
   </si>
   <si>
     <t>{34.0: 1.0}</t>
@@ -100,7 +100,7 @@
     <t>{45.0: 1.0}</t>
   </si>
   <si>
-    <t>{46.0: 1.0, 681.0: 0.005656892172708382, 741.0: 0.0013812154696132596}</t>
+    <t>{46.0: 1.0, 681.0: 0.005656892172708382, 741.0: 0.0013892747985551543}</t>
   </si>
   <si>
     <t>{47.0: 1.0}</t>
@@ -109,7 +109,7 @@
     <t>{48.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.8933886722844087}</t>
+    <t>{49.0: 0.8868973492261164}</t>
   </si>
   <si>
     <t>{50.0: 1.0}</t>
@@ -163,10 +163,10 @@
     <t>{78.0: 1.0}</t>
   </si>
   <si>
-    <t>{79.0: 0.9993480032599837}</t>
-  </si>
-  <si>
-    <t>{81.0: 0.9994900560938297}</t>
+    <t>{79.0: 0.9993761696818465}</t>
+  </si>
+  <si>
+    <t>{81.0: 0.9994958830448664}</t>
   </si>
   <si>
     <t>{82.0: 1.0}</t>
@@ -178,7 +178,7 @@
     <t>{84.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9949758577971871, 178.0: 0.008743055389971149, 492.0: 0.0034375, 97.0: 1.3291445142580957e-05, 696.0: 3.4640577762848506e-06}</t>
+    <t>{85.0: 0.994937445570922, 178.0: 0.008789371494318998, 492.0: 0.0034375, 97.0: 1.3250883392226149e-05, 696.0: 3.365698433420365e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.8987559555320275, 694.0: 0.006483790523690773}</t>
@@ -208,7 +208,7 @@
     <t>{96.0: 1.0}</t>
   </si>
   <si>
-    <t>{97.0: 0.9951227788408464}</t>
+    <t>{97.0: 0.9951567948489588}</t>
   </si>
   <si>
     <t>{98.0: 1.0}</t>
@@ -232,10 +232,10 @@
     <t>{105.0: 1.0}</t>
   </si>
   <si>
-    <t>{107.0: -0.008041738771458164}</t>
-  </si>
-  <si>
-    <t>{107.0: -0.005397783378865379, 505.0: 0.009305654974946313}</t>
+    <t>{107.0: 0.39533413779233467}</t>
+  </si>
+  <si>
+    <t>{107.0: 0.6046658622076654, 505.0: 0.009305654974946313}</t>
   </si>
   <si>
     <t>{108.0: 0.9995243983639304}</t>
@@ -256,10 +256,10 @@
     <t>{142.0: 1.0}</t>
   </si>
   <si>
-    <t>{144.0: 0.04837837837837838}</t>
-  </si>
-  <si>
-    <t>{144.0: 0.9516216216216217}</t>
+    <t>{144.0: 0.0447239110518864}</t>
+  </si>
+  <si>
+    <t>{144.0: 0.9552760889481136}</t>
   </si>
   <si>
     <t>{145.0: 0.9987436257482817}</t>
@@ -280,7 +280,7 @@
     <t>{151.0: 1.0}</t>
   </si>
   <si>
-    <t>{152.0: 0.9995648863265528}</t>
+    <t>{152.0: 0.9995732878173672}</t>
   </si>
   <si>
     <t>{185.0: 0.9751506024096386, 700.0: 0.6933559187147691, 173.0: 0.07662878361651851}</t>
@@ -316,7 +316,7 @@
     <t>{173.0: 0.9233712163834815, 185.0: 0.024849397590361446, 700.0: 0.0003820790965011307}</t>
   </si>
   <si>
-    <t>{174.0: 0.9934177215189873}</t>
+    <t>{174.0: 0.9934541792547835}</t>
   </si>
   <si>
     <t>{175.0: 1.0, 399.0: 0.014406358668653751}</t>
@@ -328,19 +328,19 @@
     <t>{177.0: 1.0}</t>
   </si>
   <si>
-    <t>{178.0: 0.9761333054798886, 681.0: 0.010330059016298597}</t>
-  </si>
-  <si>
-    <t>{179.0: 1.0, 180.0: 0.4138999238272808, 850.0: 0.0011018966358130604}</t>
-  </si>
-  <si>
-    <t>{180.0: 0.5861000761727191, 850.0: 0.001560332981491432}</t>
+    <t>{178.0: 0.976087630142054, 681.0: 0.010415463666074353}</t>
+  </si>
+  <si>
+    <t>{179.0: 1.0, 180.0: 0.4137337614901977, 850.0: 0.0011036579166127315}</t>
+  </si>
+  <si>
+    <t>{180.0: 0.5862662385098023, 850.0: 0.0015638979353379187}</t>
   </si>
   <si>
     <t>{181.0: 1.0}</t>
   </si>
   <si>
-    <t>{182.0: 1.0, 277.0: 0.0025256276927648194, 282.0: 0.0027799841143764893}</t>
+    <t>{182.0: 1.0, 277.0: 0.0025278810408921933, 282.0: 0.0028089887640449437}</t>
   </si>
   <si>
     <t>{183.0: 1.0}</t>
@@ -349,19 +349,19 @@
     <t>{184.0: 0.9937868903386144}</t>
   </si>
   <si>
-    <t>{858.0: 0.45766386834936346}</t>
-  </si>
-  <si>
-    <t>{311.0: 1.181315320072715}</t>
-  </si>
-  <si>
-    <t>{202.0: 0.2765425174972384, 307.0: 0.9844963966062609}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.9011118598382749}</t>
-  </si>
-  <si>
-    <t>{204.0: 0.9989618864007118}</t>
+    <t>{858.0: 0.3251826980051353}</t>
+  </si>
+  <si>
+    <t>{311.0: 0.7358031956941439}</t>
+  </si>
+  <si>
+    <t>{202.0: 0.27656206348482465, 307.0: 0.9844963966062609}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.9116096973347387}</t>
+  </si>
+  <si>
+    <t>{204.0: 0.9989611160581775}</t>
   </si>
   <si>
     <t>{205.0: 1.0}</t>
@@ -370,13 +370,13 @@
     <t>{206.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.5561023622047244, 477.0: 0.043134285620362055}</t>
+    <t>{207.0: 0.5561023622047244, 477.0: 0.043143765683135764}</t>
   </si>
   <si>
     <t>{208.0: 0.9887673231218089, 688.0: 0.00763807285546416}</t>
   </si>
   <si>
-    <t>{209.0: 0.9188472487770896}</t>
+    <t>{209.0: 0.9187771232698736}</t>
   </si>
   <si>
     <t>{210.0: 1.0}</t>
@@ -385,7 +385,7 @@
     <t>{211.0: 1.0}</t>
   </si>
   <si>
-    <t>{212.0: 0.9991899554475496, 681.0: 0.001962595243592704}</t>
+    <t>{212.0: 0.9991932230738201, 681.0: 0.001962595243592704}</t>
   </si>
   <si>
     <t>{213.0: 1.0}</t>
@@ -406,19 +406,19 @@
     <t>{219.0: 1.0}</t>
   </si>
   <si>
-    <t>{221.0: 0.40864799025578563}</t>
-  </si>
-  <si>
-    <t>{221.0: 0.5913520097442144}</t>
-  </si>
-  <si>
-    <t>{222.0: 1.0, 503.0: 0.04728284124946513}</t>
+    <t>{221.0: 0.29241719930273097}</t>
+  </si>
+  <si>
+    <t>{221.0: 0.707582800697269}</t>
+  </si>
+  <si>
+    <t>{222.0: 1.0, 503.0: 0.047506448839208945}</t>
   </si>
   <si>
     <t>{223.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.7847902097902097}</t>
+    <t>{627.0: 0.567653009610521}</t>
   </si>
   <si>
     <t>{225.0: 1.0}</t>
@@ -427,7 +427,7 @@
     <t>{226.0: 0.7391327351334501}</t>
   </si>
   <si>
-    <t>{227.0: 1.0, 297.0: 4.127455836222553e-05, 844.0: 0.003951267698386566}</t>
+    <t>{227.0: 1.0, 297.0: 4.15092773234818e-05, 844.0: 0.003972194637537239}</t>
   </si>
   <si>
     <t>{228.0: 1.0}</t>
@@ -448,7 +448,7 @@
     <t>{233.0: 1.0}</t>
   </si>
   <si>
-    <t>{49.0: 0.10661132771559133}</t>
+    <t>{49.0: 0.11310265077388365}</t>
   </si>
   <si>
     <t>{236.0: 1.0}</t>
@@ -457,16 +457,19 @@
     <t>{237.0: 1.0}</t>
   </si>
   <si>
-    <t>{238.0: 1.0, 253.0: 0.0025682932523931824}</t>
+    <t>{238.0: 1.0, 253.0: 0.0025246729400963965}</t>
   </si>
   <si>
     <t>{239.0: 1.0}</t>
   </si>
   <si>
-    <t>{240.0: 1.0, 241.0: 0.8194220168160811}</t>
-  </si>
-  <si>
-    <t>{241.0: 0.18057798318391893}</t>
+    <t>{240.0: 1.0, 241.0: 0.8102185762263944}</t>
+  </si>
+  <si>
+    <t>{241.0: 0.18978142377360568}</t>
+  </si>
+  <si>
+    <t>{242.0: 1.0}</t>
   </si>
   <si>
     <t>{243.0: 1.0}</t>
@@ -475,7 +478,7 @@
     <t>{244.0: 1.0}</t>
   </si>
   <si>
-    <t>{858.0: 0.4717851781842442}</t>
+    <t>{858.0: 0.3352162749358088}</t>
   </si>
   <si>
     <t>{246.0: 1.0}</t>
@@ -499,7 +502,7 @@
     <t>{252.0: 1.0}</t>
   </si>
   <si>
-    <t>{253.0: 0.9974317067476068}</t>
+    <t>{253.0: 0.9974753270599036}</t>
   </si>
   <si>
     <t>{254.0: 1.0}</t>
@@ -523,22 +526,22 @@
     <t>{261.0: 1.0}</t>
   </si>
   <si>
-    <t>{262.0: 0.9778834229020257, 79.0: 0.0006519967400162999}</t>
-  </si>
-  <si>
-    <t>{263.0: 1.0, 595.0: 0.0017152658662092624}</t>
+    <t>{262.0: 0.9778834229020257, 79.0: 0.0006238303181534623}</t>
+  </si>
+  <si>
+    <t>{263.0: 1.0, 595.0: 0.0017327861377108983}</t>
   </si>
   <si>
     <t>{265.0: 1.0}</t>
   </si>
   <si>
-    <t>{400.0: 0.06571137480117686}</t>
+    <t>{400.0: 0.06158198808299092}</t>
   </si>
   <si>
     <t>{267.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 1.0, 479.0: 0.02117183653372723, 942.0: 0.00019483285153736716}</t>
+    <t>{270.0: 1.0, 479.0: 0.020544672718585764, 942.0: 0.00018927913445146194}</t>
   </si>
   <si>
     <t>{271.0: 1.0}</t>
@@ -559,7 +562,7 @@
     <t>{276.0: 1.0}</t>
   </si>
   <si>
-    <t>{277.0: 0.9974743723072352}</t>
+    <t>{277.0: 0.9974721189591078}</t>
   </si>
   <si>
     <t>{279.0: 1.0}</t>
@@ -571,7 +574,7 @@
     <t>{281.0: 1.0, 599.0: 0.005091539378182212, 621.0: 0.04563312178906014}</t>
   </si>
   <si>
-    <t>{282.0: 0.9972200158856235}</t>
+    <t>{282.0: 0.9971910112359551}</t>
   </si>
   <si>
     <t>{283.0: 1.0}</t>
@@ -610,10 +613,10 @@
     <t>{295.0: 1.0}</t>
   </si>
   <si>
-    <t>{297.0: 0.9942090158563912, 298.0: 0.12648512248974872}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.8735148775102513, 297.0: 0.004759120184553127}</t>
+    <t>{297.0: 0.9941760838557405, 298.0: 0.12648512248974872}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.8735148775102513, 297.0: 0.004786184211172354}</t>
   </si>
   <si>
     <t>{299.0: 1.0}</t>
@@ -640,13 +643,13 @@
     <t>{308.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 1.0, 204.0: 0.0010381135992881506}</t>
+    <t>{309.0: 1.0, 204.0: 0.0010388839418224993}</t>
   </si>
   <si>
     <t>{310.0: 1.0}</t>
   </si>
   <si>
-    <t>{311.0: -0.18419073314511528}</t>
+    <t>{311.0: 0.26132139123345577}</t>
   </si>
   <si>
     <t>{226.0: 0.2608672648665498, 5.0: 0.016017234919445487, 759.0: 0.003654342218400688}</t>
@@ -667,31 +670,28 @@
     <t>{319.0: 1.0}</t>
   </si>
   <si>
-    <t>{320.0: 1.0}</t>
-  </si>
-  <si>
     <t>{398.0: 1.0}</t>
   </si>
   <si>
     <t>{399.0: 0.9855936413313463}</t>
   </si>
   <si>
-    <t>{400.0: 0.9333777862149146}</t>
+    <t>{400.0: 0.9375071729331006}</t>
   </si>
   <si>
     <t>{401.0: 1.0}</t>
   </si>
   <si>
-    <t>{402.0: 0.9983058636451748, 141.0: 0.0015162157654260925}</t>
-  </si>
-  <si>
-    <t>{403.0: 0.8801185344827587}</t>
-  </si>
-  <si>
-    <t>{404.0: 0.3602408039990831, 907.0: 0.3609253569492138}</t>
-  </si>
-  <si>
-    <t>{405.0: 1.0, 404.0: 0.0018966607276280246}</t>
+    <t>{402.0: 0.9983019057254231, 141.0: 0.0015162157654260925}</t>
+  </si>
+  <si>
+    <t>{403.0: 0.8776632302405498}</t>
+  </si>
+  <si>
+    <t>{404.0: 0.5153463240358885, 907.0: 0.5163452332102312}</t>
+  </si>
+  <si>
+    <t>{405.0: 1.0, 404.0: 0.0019345761519521632}</t>
   </si>
   <si>
     <t>{406.0: 1.0}</t>
@@ -700,7 +700,7 @@
     <t>{407.0: 1.0}</t>
   </si>
   <si>
-    <t>{408.0: 1.0, 403.0: 0.11988146551724138}</t>
+    <t>{408.0: 1.0, 403.0: 0.12233676975945017}</t>
   </si>
   <si>
     <t>{409.0: 1.0}</t>
@@ -709,7 +709,7 @@
     <t>{410.0: 1.0}</t>
   </si>
   <si>
-    <t>{404.0: 0.6378625352732888, 907.0: 0.6390746430507862}</t>
+    <t>{404.0: 0.4827190998121594, 907.0: 0.4836547667897688}</t>
   </si>
   <si>
     <t>{413.0: 1.0}</t>
@@ -733,13 +733,13 @@
     <t>{419.0: 1.0}</t>
   </si>
   <si>
-    <t>{420.0: 0.9984671980380135, 212.0: 0.0008088029145710924}</t>
+    <t>{420.0: 0.9984671980380135, 212.0: 0.0008055402969245773}</t>
   </si>
   <si>
     <t>{421.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.14934163476504986}</t>
+    <t>{597.0: 0.13779986025929664}</t>
   </si>
   <si>
     <t>{423.0: 1.0}</t>
@@ -754,19 +754,19 @@
     <t>{426.0: 1.0}</t>
   </si>
   <si>
-    <t>{428.0: 0.2669725101108509}</t>
-  </si>
-  <si>
-    <t>{428.0: 0.7321078791910113}</t>
+    <t>{428.0: 0.2118598838073569}</t>
+  </si>
+  <si>
+    <t>{428.0: 0.7872205054945053}</t>
   </si>
   <si>
     <t>{429.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 1.0, 431.0: 0.00019022256039566293, 783.0: 0.0003181673560292714}</t>
-  </si>
-  <si>
-    <t>{431.0: 0.9998097774396043}</t>
+    <t>{430.0: 1.0, 431.0: 0.00012773023374632777, 783.0: 0.0003204101249599487}</t>
+  </si>
+  <si>
+    <t>{431.0: 0.9998722697662537}</t>
   </si>
   <si>
     <t>{432.0: 0.9940968122786304}</t>
@@ -808,13 +808,13 @@
     <t>{476.0: 1.0}</t>
   </si>
   <si>
-    <t>{477.0: 0.08288882327934162}</t>
+    <t>{477.0: 0.0828872914271976}</t>
   </si>
   <si>
     <t>{478.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9788281634662728, 942.0: 0.009007621136192695}</t>
+    <t>{479.0: 0.9794553272814143, 942.0: 0.009023772688965046}</t>
   </si>
   <si>
     <t>{480.0: 1.0}</t>
@@ -841,13 +841,13 @@
     <t>{489.0: 0.9861400416599904}</t>
   </si>
   <si>
-    <t>{490.0: 1.0, 503.0: 0.007702182284980745}</t>
+    <t>{490.0: 1.0, 503.0: 0.007738607050730868}</t>
   </si>
   <si>
     <t>{491.0: 1.0}</t>
   </si>
   <si>
-    <t>{492.0: 0.995625, 97.0: 0.004860304774426683, 696.0: 0.0010033170977494122, 85.0: 0.0014245921465699139, 178.0: 0.015123639130140285}</t>
+    <t>{492.0: 0.995625, 97.0: 0.004826340390360104, 696.0: 0.0009748286553524804, 85.0: 0.0014245371484958996, 178.0: 0.015122998363626934}</t>
   </si>
   <si>
     <t>{493.0: 1.0}</t>
@@ -874,10 +874,10 @@
     <t>{501.0: 1.0}</t>
   </si>
   <si>
-    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018017591979570605}</t>
-  </si>
-  <si>
-    <t>{503.0: 0.9450149764655541}</t>
+    <t>{502.0: 1.0, 534.0: 0.0004564646810453041, 695.0: 0.0018018564173032106}</t>
+  </si>
+  <si>
+    <t>{503.0: 0.9447549441100602}</t>
   </si>
   <si>
     <t>{504.0: 1.0}</t>
@@ -892,10 +892,10 @@
     <t>{507.0: 0.9989233419465977}</t>
   </si>
   <si>
-    <t>{529.0: 1.0, 530.0: 0.01221001221001221}</t>
-  </si>
-  <si>
-    <t>{530.0: 0.9877899877899878}</t>
+    <t>{529.0: 1.0, 530.0: 0.012586532410320957}</t>
+  </si>
+  <si>
+    <t>{530.0: 0.9874134675896791}</t>
   </si>
   <si>
     <t>{531.0: 1.0, 262.0: 0.02211657709797437, 442.0: 0.0021008403361344537}</t>
@@ -907,7 +907,7 @@
     <t>{533.0: 1.0}</t>
   </si>
   <si>
-    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615052106698433, 141.0: 1.0046867056022953e-06}</t>
+    <t>{534.0: 0.9995435353189547, 402.0: 0.0006615025880422153, 141.0: 1.0046867056022953e-06}</t>
   </si>
   <si>
     <t>{535.0: 1.0}</t>
@@ -916,7 +916,7 @@
     <t>{536.0: 1.0}</t>
   </si>
   <si>
-    <t>{537.0: 1.0, 608.0: 0.027455765710799267}</t>
+    <t>{537.0: 1.0, 608.0: 0.026122291021671826}</t>
   </si>
   <si>
     <t>{538.0: 1.0}</t>
@@ -928,10 +928,10 @@
     <t>{540.0: 1.0, 428.0: 0.0009196106981377883}</t>
   </si>
   <si>
-    <t>{542.0: 0.10538281020827223, 911.0: 0.01249604555520405}</t>
-  </si>
-  <si>
-    <t>{542.0: 0.8946171897917278}</t>
+    <t>{542.0: 0.09915131442765474, 911.0: 0.012482224680044242}</t>
+  </si>
+  <si>
+    <t>{542.0: 0.9008486855723453}</t>
   </si>
   <si>
     <t>{543.0: 1.0}</t>
@@ -967,7 +967,7 @@
     <t>{567.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.2315051020408163}</t>
+    <t>{573.0: 0.4529689486108589}</t>
   </si>
   <si>
     <t>{574.0: 1.0}</t>
@@ -985,10 +985,10 @@
     <t>{578.0: 1.0}</t>
   </si>
   <si>
-    <t>{573.0: 0.7684948979591837}</t>
-  </si>
-  <si>
-    <t>{580.0: 0.9356220484668233, 752.0: 0.04612635356536104}</t>
+    <t>{573.0: 0.5470310513891411}</t>
+  </si>
+  <si>
+    <t>{580.0: 0.935665293499582, 752.0: 0.046284020554380495}</t>
   </si>
   <si>
     <t>{581.0: 0.9906564163217031}</t>
@@ -997,7 +997,7 @@
     <t>{582.0: 1.0}</t>
   </si>
   <si>
-    <t>{583.0: 0.4522030262777632, 758.0: 0.0008773141218004999}</t>
+    <t>{583.0: 0.5730553232783095, 758.0: 0.001111778335106056}</t>
   </si>
   <si>
     <t>{584.0: 1.0}</t>
@@ -1024,19 +1024,19 @@
     <t>{592.0: 1.0}</t>
   </si>
   <si>
-    <t>{593.0: 0.3232683533803401, 171.0: 0.001857864099887012}</t>
-  </si>
-  <si>
-    <t>{593.0: 0.6767316466196599, 171.0: 0.003889262336894597}</t>
-  </si>
-  <si>
-    <t>{595.0: 0.9982847341337907, 402.0: 0.0010326311441553077}</t>
+    <t>{593.0: 0.49682353666810586, 171.0: 0.0028553076820006084}</t>
+  </si>
+  <si>
+    <t>{593.0: 0.5031764633318941, 171.0: 0.0028918187547810007}</t>
+  </si>
+  <si>
+    <t>{595.0: 0.9982672138622891, 402.0: 0.001036591686534674}</t>
   </si>
   <si>
     <t>{596.0: 1.0}</t>
   </si>
   <si>
-    <t>{597.0: 0.8506583652349502}</t>
+    <t>{597.0: 0.8622001397407033}</t>
   </si>
   <si>
     <t>{598.0: 1.0, 599.0: 0.010538833469030598}</t>
@@ -1057,7 +1057,7 @@
     <t>{603.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012118805145684393}</t>
+    <t>{604.0: 1.0, 852.0: 0.0025188916876574307, 922.0: 0.0012119753465340602}</t>
   </si>
   <si>
     <t>{605.0: 1.0, 475.0: 0.017474965639112508}</t>
@@ -1069,7 +1069,7 @@
     <t>{607.0: 1.0}</t>
   </si>
   <si>
-    <t>{608.0: 0.9725442342892008}</t>
+    <t>{608.0: 0.9738777089783281}</t>
   </si>
   <si>
     <t>{609.0: 1.0, 886.0: 0.5979012446107541, 610.0: 0.46334982591167306}</t>
@@ -1126,10 +1126,10 @@
     <t>{626.0: 1.0}</t>
   </si>
   <si>
-    <t>{627.0: 0.2152097902097902}</t>
-  </si>
-  <si>
-    <t>{629.0: 1.0, 209.0: 0.048963766190058954, 788.0: 0.513246688327918}</t>
+    <t>{627.0: 0.432346990389479}</t>
+  </si>
+  <si>
+    <t>{629.0: 1.0, 209.0: 0.04903634832856514, 788.0: 0.5105034182722188}</t>
   </si>
   <si>
     <t>{630.0: 1.0}</t>
@@ -1150,19 +1150,19 @@
     <t>{636.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.0014527342533983605}</t>
+    <t>{702.0: 0.001321003963011889}</t>
   </si>
   <si>
     <t>{678.0: 1.0}</t>
   </si>
   <si>
-    <t>{679.0: 0.39843104872006607}</t>
+    <t>{679.0: 0.5064363143631436}</t>
   </si>
   <si>
     <t>{680.0: 0.9970133043714363}</t>
   </si>
   <si>
-    <t>{681.0: 0.9820504535674003}</t>
+    <t>{681.0: 0.9819650489176246}</t>
   </si>
   <si>
     <t>{682.0: 1.0}</t>
@@ -1180,7 +1180,7 @@
     <t>{686.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 1.0, 174.0: 0.006582278481012658}</t>
+    <t>{687.0: 1.0, 174.0: 0.006545820745216516}</t>
   </si>
   <si>
     <t>{688.0: 0.9923619271445359, 208.0: 0.010940919037199124}</t>
@@ -1201,19 +1201,19 @@
     <t>{694.0: 0.9935162094763093, 86.0: 0.10124404446797247}</t>
   </si>
   <si>
-    <t>{695.0: 0.9801570036886409}</t>
-  </si>
-  <si>
-    <t>{696.0: 0.9989932188444743, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.624939584340261e-06}</t>
+    <t>{695.0: 0.9802098910129465}</t>
+  </si>
+  <si>
+    <t>{696.0: 0.9990218056462141, 14.0: 0.0009894459102902375, 492.0: 0.0009375, 97.0: 3.6138772887889494e-06}</t>
   </si>
   <si>
     <t>{697.0: 1.0}</t>
   </si>
   <si>
-    <t>{698.0: 0.17918043031872155}</t>
-  </si>
-  <si>
-    <t>{698.0: 0.8208195696812784}</t>
+    <t>{698.0: 0.41478628942427037}</t>
+  </si>
+  <si>
+    <t>{698.0: 0.5852137105757296}</t>
   </si>
   <si>
     <t>{700.0: 0.305808730390477}</t>
@@ -1222,7 +1222,7 @@
     <t>{701.0: 1.0}</t>
   </si>
   <si>
-    <t>{702.0: 0.9985472657466017}</t>
+    <t>{702.0: 0.9986789960369881}</t>
   </si>
   <si>
     <t>{704.0: 1.0}</t>
@@ -1267,16 +1267,16 @@
     <t>{740.0: 1.0}</t>
   </si>
   <si>
-    <t>{741.0: 0.9986187845303868}</t>
-  </si>
-  <si>
-    <t>{583.0: 0.546159419137084, 758.0: 0.001059597887053955}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.5631107081696384}</t>
-  </si>
-  <si>
-    <t>{743.0: 0.4368892918303616}</t>
+    <t>{741.0: 0.9986107252014449}</t>
+  </si>
+  <si>
+    <t>{583.0: 0.42530712213653776, 758.0: 0.000825133673748399}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.6499878944395125}</t>
+  </si>
+  <si>
+    <t>{743.0: 0.35001210556048745}</t>
   </si>
   <si>
     <t>{746.0: 1.0}</t>
@@ -1297,7 +1297,7 @@
     <t>{751.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.953873646434639, 580.0: 0.06437795153317666}</t>
+    <t>{752.0: 0.9537159794456196, 580.0: 0.0643347065004179}</t>
   </si>
   <si>
     <t>{753.0: 1.0}</t>
@@ -1339,7 +1339,7 @@
     <t>{769.0: 1.0}</t>
   </si>
   <si>
-    <t>{770.0: 1.0, 992.0: 0.00421455938697318}</t>
+    <t>{770.0: 1.0, 992.0: 0.004208110175975516}</t>
   </si>
   <si>
     <t>{771.0: 1.0}</t>
@@ -1348,7 +1348,7 @@
     <t>{772.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.34352944792819384}</t>
+    <t>{992.0: 0.34353167279893726}</t>
   </si>
   <si>
     <t>{775.0: 1.0}</t>
@@ -1360,16 +1360,16 @@
     <t>{777.0: 1.0}</t>
   </si>
   <si>
-    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2416378792924353e-06, 184.0: 0.006213109661385523}</t>
+    <t>{778.0: 1.0, 420.0: 0.0015328019619865114, 212.0: 1.2366292553340148e-06, 184.0: 0.006213109661385523}</t>
   </si>
   <si>
     <t>{779.0: 1.0}</t>
   </si>
   <si>
-    <t>{781.0: 1.0, 81.0: 0.0005099439061703213}</t>
-  </si>
-  <si>
-    <t>{783.0: 0.9996818326439707}</t>
+    <t>{781.0: 1.0, 81.0: 0.000504116955133591}</t>
+  </si>
+  <si>
+    <t>{783.0: 0.99967958987504}</t>
   </si>
   <si>
     <t>{784.0: 1.0}</t>
@@ -1384,7 +1384,7 @@
     <t>{787.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: -0.04165571887483691}</t>
+    <t>{788.0: -0.03638598371247355}</t>
   </si>
   <si>
     <t>{789.0: 1.0}</t>
@@ -1426,7 +1426,7 @@
     <t>{842.0: 1.0}</t>
   </si>
   <si>
-    <t>{844.0: 0.9960487323016134}</t>
+    <t>{844.0: 0.9960278053624627}</t>
   </si>
   <si>
     <t>{845.0: 1.0}</t>
@@ -1438,22 +1438,22 @@
     <t>{847.0: 1.0}</t>
   </si>
   <si>
-    <t>{848.0: 0.9232439017315892, 634.0: 0.9198774700023947}</t>
+    <t>{848.0: 0.9228851136919364, 634.0: 0.9196454994271116}</t>
   </si>
   <si>
     <t>{849.0: 1.0}</t>
   </si>
   <si>
-    <t>{850.0: 0.9973377703826956}</t>
+    <t>{850.0: 0.9973324441480493}</t>
   </si>
   <si>
     <t>{851.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9974811083123426, 922.0: 0.0022079438801396994}</t>
-  </si>
-  <si>
-    <t>{853.0: 1.0, 202.0: 0.7234574825027617, 477.0: 0.8739768911002963, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756, 680.0: 0.002986695628563671}</t>
+    <t>{852.0: 0.9974811083123426, 922.0: 0.0022801572723862235}</t>
+  </si>
+  <si>
+    <t>{853.0: 1.0, 202.0: 0.7234379365151753, 477.0: 0.8739689428896666, 307.0: 0.015503603393739076, 207.0: 0.4438976377952756, 680.0: 0.002986695628563671}</t>
   </si>
   <si>
     <t>{854.0: 1.0}</t>
@@ -1465,10 +1465,10 @@
     <t>{856.0: 1.0}</t>
   </si>
   <si>
-    <t>{857.0: 1.0, 695.0: 0.01804123711340206}</t>
-  </si>
-  <si>
-    <t>{858.0: 0.0705509534663924}</t>
+    <t>{857.0: 1.0, 695.0: 0.017988252569750368}</t>
+  </si>
+  <si>
+    <t>{858.0: 0.33960102705905587}</t>
   </si>
   <si>
     <t>{859.0: 1.0}</t>
@@ -1477,7 +1477,7 @@
     <t>{860.0: 1.0}</t>
   </si>
   <si>
-    <t>{861.0: 0.9041179020372778}</t>
+    <t>{861.0: 0.9096479045829589}</t>
   </si>
   <si>
     <t>{863.0: 1.0}</t>
@@ -1516,10 +1516,10 @@
     <t>{894.0: 1.0}</t>
   </si>
   <si>
-    <t>{895.0: 0.9977052524222335, 209.0: 0.0017243782148631708}</t>
-  </si>
-  <si>
-    <t>{896.0: 1.0, 209.0: 0.030464606817988293, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
+    <t>{895.0: 0.9977052524222335, 209.0: 0.0017242466120346155}</t>
+  </si>
+  <si>
+    <t>{896.0: 1.0, 209.0: 0.03046228178952672, 400.0: 0.0009108389839085113, 432.0: 0.0059031877213695395, 895.0: 0.0022947475777664456}</t>
   </si>
   <si>
     <t>{905.0: 1.0}</t>
@@ -1528,16 +1528,16 @@
     <t>{906.0: 1.0}</t>
   </si>
   <si>
-    <t>{788.0: 0.5284090305469189}</t>
+    <t>{788.0: 0.5258825654402548}</t>
   </si>
   <si>
     <t>{909.0: 0.9909725650610057}</t>
   </si>
   <si>
-    <t>{911.0: 0.987503954444796}</t>
-  </si>
-  <si>
-    <t>{861.0: 0.09588209796272215}</t>
+    <t>{911.0: 0.9875177753199558}</t>
+  </si>
+  <si>
+    <t>{861.0: 0.09035209541704109}</t>
   </si>
   <si>
     <t>{913.0: 1.0}</t>
@@ -1558,7 +1558,7 @@
     <t>{918.0: 0.9990840393863064}</t>
   </si>
   <si>
-    <t>{919.0: 1.0, 297.0: 0.0009905894006934125}</t>
+    <t>{919.0: 1.0, 297.0: 0.0009962226557635632}</t>
   </si>
   <si>
     <t>{920.0: 1.0}</t>
@@ -1567,7 +1567,7 @@
     <t>{921.0: 0.9903586579251832}</t>
   </si>
   <si>
-    <t>{922.0: 0.9965801756052919}</t>
+    <t>{922.0: 0.9965078673810798}</t>
   </si>
   <si>
     <t>{923.0: 1.0}</t>
@@ -1606,7 +1606,7 @@
     <t>{936.0: 1.0}</t>
   </si>
   <si>
-    <t>{937.0: 1.0, 85.0: 0.0035995500562429695}</t>
+    <t>{937.0: 1.0, 85.0: 0.0036380172805820826}</t>
   </si>
   <si>
     <t>{940.0: 1.0, 785.0: 0.004104903078677309}</t>
@@ -1615,16 +1615,16 @@
     <t>{941.0: 1.0}</t>
   </si>
   <si>
-    <t>{942.0: 0.99079754601227}</t>
-  </si>
-  <si>
-    <t>{943.0: 1.0, 848.0: 0.07675609826841082, 634.0: 0.07647622188456976}</t>
+    <t>{942.0: 0.9907869481765835}</t>
+  </si>
+  <si>
+    <t>{943.0: 1.0, 848.0: 0.07711488630806371, 634.0: 0.07684418903273924}</t>
   </si>
   <si>
     <t>{944.0: 1.0}</t>
   </si>
   <si>
-    <t>{971.0: 1.0, 152.0: 0.0004351136734471881}</t>
+    <t>{971.0: 1.0, 152.0: 0.0004267121826328142}</t>
   </si>
   <si>
     <t>{972.0: 1.0}</t>
@@ -1663,13 +1663,13 @@
     <t>{990.0: 1.0}</t>
   </si>
   <si>
-    <t>{992.0: 0.3755864039975379}</t>
-  </si>
-  <si>
-    <t>{992.0: 0.27666958868729524}</t>
-  </si>
-  <si>
-    <t>{203.0: 0.09888814016172506}</t>
+    <t>{992.0: 0.4315215930889716}</t>
+  </si>
+  <si>
+    <t>{992.0: 0.22073862393611562}</t>
+  </si>
+  <si>
+    <t>{203.0: 0.08839030266526125}</t>
   </si>
   <si>
     <t>{5.0: 1.0}</t>
@@ -1705,7 +1705,7 @@
     <t>{81.0: 1.0}</t>
   </si>
   <si>
-    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.00889676964238059, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
+    <t>{85.0: 0.9672733850680976, 178.0: 0.023807093342605865, 492.0: 0.008896769642380589, 97.0: 1.8201557532787838e-05, 696.0: 4.5503893831969595e-06}</t>
   </si>
   <si>
     <t>{86.0: 0.9886446353180959, 694.0: 0.011355364681904206}</t>
@@ -1759,7 +1759,7 @@
     <t>{185.0: 0.4093653665270528, 700.0: 0.568602215730542, 173.0: 0.022032417742405126}</t>
   </si>
   <si>
-    <t>{165.0: 0.9931010392105493, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895606}</t>
+    <t>{165.0: 0.9931010392105492, 914.0: 0.006238578376561143, 110.0: 0.0006603824128895606}</t>
   </si>
   <si>
     <t>{171.0: 1.0}</t>
@@ -1774,16 +1774,16 @@
     <t>{175.0: 0.9818551540747693, 399.0: 0.01814484592523072}</t>
   </si>
   <si>
-    <t>{178.0: 0.9927808312723697, 681.0: 0.007219168727630309}</t>
-  </si>
-  <si>
-    <t>{179.0: 0.5950678828464971, 180.0: 0.4047509394724499, 850.0: 0.0001811776810530214}</t>
+    <t>{178.0: 0.9927247322672178, 681.0: 0.007275267732782239}</t>
+  </si>
+  <si>
+    <t>{179.0: 0.5960977403468276, 180.0: 0.4037215427584727, 850.0: 0.00018071689469940593}</t>
   </si>
   <si>
     <t>{180.0: 0.9995525727069351, 850.0: 0.000447427293064877}</t>
   </si>
   <si>
-    <t>{182.0: 0.9971718123968887, 277.0: 0.0020032995522036297, 282.0: 0.0008248880509073769}</t>
+    <t>{182.0: 0.9971607713237907, 277.0: 0.0020111203123151546, 282.0: 0.0008281083638944755}</t>
   </si>
   <si>
     <t>{184.0: 1.0}</t>
@@ -1804,7 +1804,7 @@
     <t>{204.0: 1.0}</t>
   </si>
   <si>
-    <t>{207.0: 0.4623000761614623, 477.0: 0.5376999238385377}</t>
+    <t>{207.0: 0.44800625488663026, 477.0: 0.5519937451133698}</t>
   </si>
   <si>
     <t>{208.0: 0.9980857016639668, 688.0: 0.0019142983360329847}</t>
@@ -1819,7 +1819,7 @@
     <t>{221.0: 1.0}</t>
   </si>
   <si>
-    <t>{222.0: 0.8492496589358799, 503.0: 0.15075034106412005}</t>
+    <t>{222.0: 0.8489405331510596, 503.0: 0.15105946684894053}</t>
   </si>
   <si>
     <t>{627.0: 1.0}</t>
@@ -1828,7 +1828,7 @@
     <t>{226.0: 1.0}</t>
   </si>
   <si>
-    <t>{227.0: 0.9975617827628102, 297.0: 0.0001804561835678022, 844.0: 0.002257761053621825}</t>
+    <t>{227.0: 0.9975636241524386, 297.0: 0.00017861479393955934, 844.0: 0.002257761053621825}</t>
   </si>
   <si>
     <t>{232.0: 0.9901095019427762, 145.0: 0.0010008242081714354, 301.0: 0.008889673849052161}</t>
@@ -1837,7 +1837,7 @@
     <t>{238.0: 0.9953091684434968, 253.0: 0.004690831556503198}</t>
   </si>
   <si>
-    <t>{240.0: 0.2380261999689329, 241.0: 0.7619738000310671}</t>
+    <t>{240.0: 0.23802619996893293, 241.0: 0.7619738000310671}</t>
   </si>
   <si>
     <t>{241.0: 1.0}</t>
@@ -1852,16 +1852,16 @@
     <t>{262.0: 0.9992897727272727, 79.0: 0.0007102272727272727}</t>
   </si>
   <si>
-    <t>{263.0: 0.9986023245549507, 595.0: 0.0013976754450492864}</t>
+    <t>{263.0: 0.9986024273630011, 595.0: 0.0013975726369988967}</t>
   </si>
   <si>
     <t>{400.0: 1.0}</t>
   </si>
   <si>
-    <t>{270.0: 0.9873640905083754, 479.0: 0.012356147657862115, 942.0: 0.0002797618337629159}</t>
-  </si>
-  <si>
-    <t>{275.0: 0.9901029295328584, 921.0: 0.009897070467141725}</t>
+    <t>{270.0: 0.9873640905083754, 479.0: 0.012350620848352223, 942.0: 0.0002852886432728136}</t>
+  </si>
+  <si>
+    <t>{275.0: 0.9901029295328582, 921.0: 0.009897070467141725}</t>
   </si>
   <si>
     <t>{277.0: 1.0}</t>
@@ -1876,19 +1876,19 @@
     <t>{285.0: 0.9971814395692229, 311.0: 0.0028185604307769973}</t>
   </si>
   <si>
-    <t>{286.0: 0.9870967741935484, 909.0: 0.012903225806451613}</t>
-  </si>
-  <si>
-    <t>{297.0: 0.9603432910825851, 298.0: 0.0396567089174152}</t>
-  </si>
-  <si>
-    <t>{298.0: 0.9860774179938827, 297.0: 0.013922582006117505}</t>
+    <t>{286.0: 0.9870967741935484, 909.0: 0.012903225806451615}</t>
+  </si>
+  <si>
+    <t>{297.0: 0.9603432320318249, 298.0: 0.039656767968174994}</t>
+  </si>
+  <si>
+    <t>{298.0: 0.9860788863109048, 297.0: 0.013921113689095124}</t>
   </si>
   <si>
     <t>{301.0: 1.0}</t>
   </si>
   <si>
-    <t>{309.0: 0.9989234081820977, 204.0: 0.001076591817902184}</t>
+    <t>{309.0: 0.9989764585465711, 204.0: 0.0010235414534288639}</t>
   </si>
   <si>
     <t>{226.0: 0.9417289819392755, 5.0: 0.053001830257361125, 759.0: 0.005269187803363386}</t>
@@ -1906,10 +1906,10 @@
     <t>{404.0: 0.7774172615184942, 907.0: 0.22258273848150553}</t>
   </si>
   <si>
-    <t>{405.0: 0.9975034044484791, 404.0: 0.0024965955515206537}</t>
-  </si>
-  <si>
-    <t>{408.0: 0.94304, 403.0: 0.05696}</t>
+    <t>{405.0: 0.9975391498881433, 404.0: 0.0024608501118568234}</t>
+  </si>
+  <si>
+    <t>{408.0: 0.9431382570917456, 403.0: 0.056861742908254534}</t>
   </si>
   <si>
     <t>{414.0: 0.9969001859888407, 759.0: 0.0030998140111593306}</t>
@@ -1924,7 +1924,7 @@
     <t>{428.0: 1.0}</t>
   </si>
   <si>
-    <t>{430.0: 0.9996247593749246, 431.0: 0.00018684574941587383, 783.0: 0.00018839487565938207}</t>
+    <t>{430.0: 0.999281049806884, 431.0: 0.00035663135253636115, 783.0: 0.00036231884057971015}</t>
   </si>
   <si>
     <t>{431.0: 1.0}</t>
@@ -1942,16 +1942,16 @@
     <t>{477.0: 1.0}</t>
   </si>
   <si>
-    <t>{479.0: 0.9778597785977858, 942.0: 0.022140221402214017}</t>
+    <t>{479.0: 0.977422389463782, 942.0: 0.02257761053621825}</t>
   </si>
   <si>
     <t>{489.0: 1.0}</t>
   </si>
   <si>
-    <t>{490.0: 0.9778869778869782, 503.0: 0.022113022113022112}</t>
-  </si>
-  <si>
-    <t>{492.0: 0.9809994665610904, 97.0: 0.002446549374644078, 696.0: 0.0005017472337709096, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
+    <t>{490.0: 0.9779141104294478, 503.0: 0.022085889570552155}</t>
+  </si>
+  <si>
+    <t>{492.0: 0.9809994665610898, 97.0: 0.002446549374644078, 696.0: 0.0005017472337709096, 85.0: 0.000527242705573207, 178.0: 0.015524994124921808}</t>
   </si>
   <si>
     <t>{502.0: 0.9978808570755828, 534.0: 0.0009418412997409934, 695.0: 0.0011773016246762421}</t>
@@ -1975,7 +1975,7 @@
     <t>{531.0: 0.9788982259570493, 262.0: 0.019981325863678803, 442.0: 0.0011204481792717086}</t>
   </si>
   <si>
-    <t>{534.0: 0.9992392131290078, 402.0: 0.0007592707552669103, 141.0: 1.5161157253732234e-06}</t>
+    <t>{534.0: 0.9992392131290077, 402.0: 0.0007592707552669103, 141.0: 1.5161157253732234e-06}</t>
   </si>
   <si>
     <t>{537.0: 0.9727987104573845, 608.0: 0.027201289542615352}</t>
@@ -2005,7 +2005,7 @@
     <t>{573.0: 1.0}</t>
   </si>
   <si>
-    <t>{580.0: 0.9881828924643211, 752.0: 0.011817107535678575}</t>
+    <t>{580.0: 0.988462903798367, 752.0: 0.011537096201632943}</t>
   </si>
   <si>
     <t>{581.0: 1.0}</t>
@@ -2029,7 +2029,7 @@
     <t>{599.0: 1.0}</t>
   </si>
   <si>
-    <t>{604.0: 0.996050552922591, 852.0: 0.001172884671243, 922.0: 0.002776562406166162}</t>
+    <t>{604.0: 0.996050552922591, 852.0: 0.0011727912431587178, 922.0: 0.002776655834250445}</t>
   </si>
   <si>
     <t>{605.0: 0.9748587570621469, 475.0: 0.025141242937853105}</t>
@@ -2059,7 +2059,7 @@
     <t>{681.0: 1.0}</t>
   </si>
   <si>
-    <t>{687.0: 0.997153492445807, 174.0: 0.0028465075541931244}</t>
+    <t>{687.0: 0.9971296091852504, 174.0: 0.002870390814749393}</t>
   </si>
   <si>
     <t>{688.0: 0.9574829931972787, 208.0: 0.042517006802721094}</t>
@@ -2077,7 +2077,7 @@
     <t>{695.0: 1.0}</t>
   </si>
   <si>
-    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606779, 97.0: 4.11281720352593e-06}</t>
+    <t>{696.0: 0.9974817134579119, 14.0: 0.0005038629492777964, 492.0: 0.002010310775606778, 97.0: 4.11281720352593e-06}</t>
   </si>
   <si>
     <t>{698.0: 1.0}</t>
@@ -2095,7 +2095,7 @@
     <t>{743.0: 1.0}</t>
   </si>
   <si>
-    <t>{752.0: 0.806692854513823, 580.0: 0.1933071454861769}</t>
+    <t>{752.0: 0.8066160041894901, 580.0: 0.1933839958105095}</t>
   </si>
   <si>
     <t>{758.0: 0.9991689750692521, 583.0: 0.0008310249307479224}</t>
@@ -2107,7 +2107,7 @@
     <t>{762.0: 0.9509029955661303, 141.0: 0.049097004433870446}</t>
   </si>
   <si>
-    <t>{770.0: 0.9803571428571428, 992.0: 0.019642857142857142}</t>
+    <t>{770.0: 0.9801712483100495, 992.0: 0.01982875168995043}</t>
   </si>
   <si>
     <t>{992.0: 1.0}</t>
@@ -2143,13 +2143,13 @@
     <t>{850.0: 1.0}</t>
   </si>
   <si>
-    <t>{852.0: 0.9899146625290918, 922.0: 0.01008533747090768}</t>
-  </si>
-  <si>
-    <t>{853.0: 0.850417174791577, 202.0: 0.06267530338672693, 477.0: 0.08456065457257103, 307.0: 8.839720974269258e-05, 207.0: 0.002150977832567094, 680.0: 0.00010749220681500592}</t>
-  </si>
-  <si>
-    <t>{857.0: 0.9927664599940952, 695.0: 0.007233540005904927}</t>
+    <t>{852.0: 0.9898358092259579, 922.0: 0.010164190774042221}</t>
+  </si>
+  <si>
+    <t>{853.0: 0.8504171747915775, 202.0: 0.06267530338672693, 477.0: 0.08462716049435266, 307.0: 8.839720974269258e-05, 207.0: 0.002084471910785455, 680.0: 0.00010749220681500592}</t>
+  </si>
+  <si>
+    <t>{857.0: 0.9926963779997018, 695.0: 0.007303622000298106}</t>
   </si>
   <si>
     <t>{861.0: 1.0}</t>
@@ -2179,7 +2179,7 @@
     <t>{918.0: 1.0}</t>
   </si>
   <si>
-    <t>{919.0: 0.9939789262418464, 297.0: 0.006021073758153537}</t>
+    <t>{919.0: 0.9941104294478532, 297.0: 0.00588957055214724}</t>
   </si>
   <si>
     <t>{921.0: 1.0}</t>
@@ -2203,7 +2203,7 @@
     <t>{942.0: 1.0}</t>
   </si>
   <si>
-    <t>{943.0: 0.8000222720249447, 848.0: 0.1613396177119069, 634.0: 0.03863811026314845}</t>
+    <t>{943.0: 0.7700641420657478, 848.0: 0.1855094754451809, 634.0: 0.04442638248907136}</t>
   </si>
   <si>
     <t>{971.0: 0.9989698686582539, 152.0: 0.0010301313417460727}</t>
@@ -4223,7 +4223,7 @@
     </row>
     <row r="150" spans="1:3">
       <c r="A150">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B150" t="s">
         <v>151</v>
@@ -4234,7 +4234,7 @@
     </row>
     <row r="151" spans="1:3">
       <c r="A151">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B151" t="s">
         <v>152</v>
@@ -4245,29 +4245,29 @@
     </row>
     <row r="152" spans="1:3">
       <c r="A152">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B152" t="s">
         <v>153</v>
       </c>
       <c r="C152" t="s">
-        <v>591</v>
+        <v>153</v>
       </c>
     </row>
     <row r="153" spans="1:3">
       <c r="A153">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B153" t="s">
         <v>154</v>
       </c>
       <c r="C153" t="s">
-        <v>154</v>
+        <v>591</v>
       </c>
     </row>
     <row r="154" spans="1:3">
       <c r="A154">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B154" t="s">
         <v>155</v>
@@ -4278,7 +4278,7 @@
     </row>
     <row r="155" spans="1:3">
       <c r="A155">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B155" t="s">
         <v>156</v>
@@ -4289,7 +4289,7 @@
     </row>
     <row r="156" spans="1:3">
       <c r="A156">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B156" t="s">
         <v>157</v>
@@ -4300,29 +4300,29 @@
     </row>
     <row r="157" spans="1:3">
       <c r="A157">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B157" t="s">
         <v>158</v>
       </c>
       <c r="C157" t="s">
-        <v>609</v>
+        <v>158</v>
       </c>
     </row>
     <row r="158" spans="1:3">
       <c r="A158">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B158" t="s">
         <v>159</v>
       </c>
       <c r="C158" t="s">
-        <v>159</v>
+        <v>609</v>
       </c>
     </row>
     <row r="159" spans="1:3">
       <c r="A159">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B159" t="s">
         <v>160</v>
@@ -4333,29 +4333,29 @@
     </row>
     <row r="160" spans="1:3">
       <c r="A160">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B160" t="s">
         <v>161</v>
       </c>
       <c r="C160" t="s">
-        <v>610</v>
+        <v>161</v>
       </c>
     </row>
     <row r="161" spans="1:3">
       <c r="A161">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B161" t="s">
         <v>162</v>
       </c>
       <c r="C161" t="s">
-        <v>162</v>
+        <v>610</v>
       </c>
     </row>
     <row r="162" spans="1:3">
       <c r="A162">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B162" t="s">
         <v>163</v>
@@ -4366,7 +4366,7 @@
     </row>
     <row r="163" spans="1:3">
       <c r="A163">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B163" t="s">
         <v>164</v>
@@ -4377,7 +4377,7 @@
     </row>
     <row r="164" spans="1:3">
       <c r="A164">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B164" t="s">
         <v>165</v>
@@ -4388,7 +4388,7 @@
     </row>
     <row r="165" spans="1:3">
       <c r="A165">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B165" t="s">
         <v>166</v>
@@ -4399,7 +4399,7 @@
     </row>
     <row r="166" spans="1:3">
       <c r="A166">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B166" t="s">
         <v>167</v>
@@ -4410,7 +4410,7 @@
     </row>
     <row r="167" spans="1:3">
       <c r="A167">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="B167" t="s">
         <v>168</v>
@@ -4421,84 +4421,84 @@
     </row>
     <row r="168" spans="1:3">
       <c r="A168">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B168" t="s">
         <v>169</v>
       </c>
       <c r="C168" t="s">
-        <v>611</v>
+        <v>169</v>
       </c>
     </row>
     <row r="169" spans="1:3">
       <c r="A169">
-        <v>263</v>
+        <v>262</v>
       </c>
       <c r="B169" t="s">
         <v>170</v>
       </c>
       <c r="C169" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
     </row>
     <row r="170" spans="1:3">
       <c r="A170">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B170" t="s">
         <v>171</v>
       </c>
       <c r="C170" t="s">
-        <v>171</v>
+        <v>612</v>
       </c>
     </row>
     <row r="171" spans="1:3">
       <c r="A171">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B171" t="s">
         <v>172</v>
       </c>
       <c r="C171" t="s">
-        <v>613</v>
+        <v>172</v>
       </c>
     </row>
     <row r="172" spans="1:3">
       <c r="A172">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B172" t="s">
         <v>173</v>
       </c>
       <c r="C172" t="s">
-        <v>173</v>
+        <v>613</v>
       </c>
     </row>
     <row r="173" spans="1:3">
       <c r="A173">
-        <v>270</v>
+        <v>267</v>
       </c>
       <c r="B173" t="s">
         <v>174</v>
       </c>
       <c r="C173" t="s">
-        <v>614</v>
+        <v>174</v>
       </c>
     </row>
     <row r="174" spans="1:3">
       <c r="A174">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B174" t="s">
         <v>175</v>
       </c>
       <c r="C174" t="s">
-        <v>175</v>
+        <v>614</v>
       </c>
     </row>
     <row r="175" spans="1:3">
       <c r="A175">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B175" t="s">
         <v>176</v>
@@ -4509,7 +4509,7 @@
     </row>
     <row r="176" spans="1:3">
       <c r="A176">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B176" t="s">
         <v>177</v>
@@ -4520,7 +4520,7 @@
     </row>
     <row r="177" spans="1:3">
       <c r="A177">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B177" t="s">
         <v>178</v>
@@ -4531,51 +4531,51 @@
     </row>
     <row r="178" spans="1:3">
       <c r="A178">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B178" t="s">
         <v>179</v>
       </c>
       <c r="C178" t="s">
-        <v>615</v>
+        <v>179</v>
       </c>
     </row>
     <row r="179" spans="1:3">
       <c r="A179">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B179" t="s">
         <v>180</v>
       </c>
       <c r="C179" t="s">
-        <v>180</v>
+        <v>615</v>
       </c>
     </row>
     <row r="180" spans="1:3">
       <c r="A180">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B180" t="s">
         <v>181</v>
       </c>
       <c r="C180" t="s">
-        <v>616</v>
+        <v>181</v>
       </c>
     </row>
     <row r="181" spans="1:3">
       <c r="A181">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B181" t="s">
         <v>182</v>
       </c>
       <c r="C181" t="s">
-        <v>182</v>
+        <v>616</v>
       </c>
     </row>
     <row r="182" spans="1:3">
       <c r="A182">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B182" t="s">
         <v>183</v>
@@ -4586,40 +4586,40 @@
     </row>
     <row r="183" spans="1:3">
       <c r="A183">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B183" t="s">
         <v>184</v>
       </c>
       <c r="C183" t="s">
-        <v>617</v>
+        <v>184</v>
       </c>
     </row>
     <row r="184" spans="1:3">
       <c r="A184">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B184" t="s">
         <v>185</v>
       </c>
       <c r="C184" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
     </row>
     <row r="185" spans="1:3">
       <c r="A185">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B185" t="s">
         <v>186</v>
       </c>
       <c r="C185" t="s">
-        <v>186</v>
+        <v>618</v>
       </c>
     </row>
     <row r="186" spans="1:3">
       <c r="A186">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B186" t="s">
         <v>187</v>
@@ -4630,40 +4630,40 @@
     </row>
     <row r="187" spans="1:3">
       <c r="A187">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B187" t="s">
         <v>188</v>
       </c>
       <c r="C187" t="s">
-        <v>619</v>
+        <v>188</v>
       </c>
     </row>
     <row r="188" spans="1:3">
       <c r="A188">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B188" t="s">
         <v>189</v>
       </c>
       <c r="C188" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
     </row>
     <row r="189" spans="1:3">
       <c r="A189">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B189" t="s">
         <v>190</v>
       </c>
       <c r="C189" t="s">
-        <v>190</v>
+        <v>620</v>
       </c>
     </row>
     <row r="190" spans="1:3">
       <c r="A190">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B190" t="s">
         <v>191</v>
@@ -4674,7 +4674,7 @@
     </row>
     <row r="191" spans="1:3">
       <c r="A191">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B191" t="s">
         <v>192</v>
@@ -4685,7 +4685,7 @@
     </row>
     <row r="192" spans="1:3">
       <c r="A192">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B192" t="s">
         <v>193</v>
@@ -4696,7 +4696,7 @@
     </row>
     <row r="193" spans="1:3">
       <c r="A193">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B193" t="s">
         <v>194</v>
@@ -4707,7 +4707,7 @@
     </row>
     <row r="194" spans="1:3">
       <c r="A194">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B194" t="s">
         <v>195</v>
@@ -4718,7 +4718,7 @@
     </row>
     <row r="195" spans="1:3">
       <c r="A195">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B195" t="s">
         <v>196</v>
@@ -4729,7 +4729,7 @@
     </row>
     <row r="196" spans="1:3">
       <c r="A196">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B196" t="s">
         <v>197</v>
@@ -4740,40 +4740,40 @@
     </row>
     <row r="197" spans="1:3">
       <c r="A197">
-        <v>297</v>
+        <v>295</v>
       </c>
       <c r="B197" t="s">
         <v>198</v>
       </c>
       <c r="C197" t="s">
-        <v>621</v>
+        <v>198</v>
       </c>
     </row>
     <row r="198" spans="1:3">
       <c r="A198">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B198" t="s">
         <v>199</v>
       </c>
       <c r="C198" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
     </row>
     <row r="199" spans="1:3">
       <c r="A199">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B199" t="s">
         <v>200</v>
       </c>
       <c r="C199" t="s">
-        <v>200</v>
+        <v>622</v>
       </c>
     </row>
     <row r="200" spans="1:3">
       <c r="A200">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B200" t="s">
         <v>201</v>
@@ -4784,29 +4784,29 @@
     </row>
     <row r="201" spans="1:3">
       <c r="A201">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B201" t="s">
         <v>202</v>
       </c>
       <c r="C201" t="s">
-        <v>623</v>
+        <v>202</v>
       </c>
     </row>
     <row r="202" spans="1:3">
       <c r="A202">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B202" t="s">
         <v>203</v>
       </c>
       <c r="C202" t="s">
-        <v>203</v>
+        <v>623</v>
       </c>
     </row>
     <row r="203" spans="1:3">
       <c r="A203">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B203" t="s">
         <v>204</v>
@@ -4817,7 +4817,7 @@
     </row>
     <row r="204" spans="1:3">
       <c r="A204">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B204" t="s">
         <v>205</v>
@@ -4828,7 +4828,7 @@
     </row>
     <row r="205" spans="1:3">
       <c r="A205">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B205" t="s">
         <v>206</v>
@@ -4839,7 +4839,7 @@
     </row>
     <row r="206" spans="1:3">
       <c r="A206">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B206" t="s">
         <v>207</v>
@@ -4850,62 +4850,62 @@
     </row>
     <row r="207" spans="1:3">
       <c r="A207">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B207" t="s">
         <v>208</v>
       </c>
       <c r="C207" t="s">
-        <v>624</v>
+        <v>208</v>
       </c>
     </row>
     <row r="208" spans="1:3">
       <c r="A208">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B208" t="s">
         <v>209</v>
       </c>
       <c r="C208" t="s">
-        <v>209</v>
+        <v>624</v>
       </c>
     </row>
     <row r="209" spans="1:3">
       <c r="A209">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B209" t="s">
         <v>210</v>
       </c>
       <c r="C209" t="s">
-        <v>592</v>
+        <v>210</v>
       </c>
     </row>
     <row r="210" spans="1:3">
       <c r="A210">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B210" t="s">
         <v>211</v>
       </c>
       <c r="C210" t="s">
-        <v>625</v>
+        <v>592</v>
       </c>
     </row>
     <row r="211" spans="1:3">
       <c r="A211">
-        <v>315</v>
+        <v>312</v>
       </c>
       <c r="B211" t="s">
         <v>212</v>
       </c>
       <c r="C211" t="s">
-        <v>212</v>
+        <v>625</v>
       </c>
     </row>
     <row r="212" spans="1:3">
       <c r="A212">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B212" t="s">
         <v>213</v>
@@ -4916,7 +4916,7 @@
     </row>
     <row r="213" spans="1:3">
       <c r="A213">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B213" t="s">
         <v>214</v>
@@ -4927,7 +4927,7 @@
     </row>
     <row r="214" spans="1:3">
       <c r="A214">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B214" t="s">
         <v>215</v>
@@ -4938,7 +4938,7 @@
     </row>
     <row r="215" spans="1:3">
       <c r="A215">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B215" t="s">
         <v>216</v>
@@ -4949,7 +4949,7 @@
     </row>
     <row r="216" spans="1:3">
       <c r="A216">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B216" t="s">
         <v>217</v>
